--- a/DATA_goal/Junction_Flooding_336.xlsx
+++ b/DATA_goal/Junction_Flooding_336.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>45017.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.97</v>
+        <v>19.7</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.33</v>
+        <v>13.28</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.41</v>
+        <v>4.06</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.18</v>
+        <v>41.79</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.38</v>
+        <v>33.75</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.55</v>
+        <v>15.5</v>
       </c>
       <c r="H2" s="4" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>23.85</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>15.14</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>16.47</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>17.17</v>
+      </c>
+      <c r="N2" s="4" t="n">
         <v>4.95</v>
       </c>
-      <c r="I2" s="4" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.49</v>
-      </c>
       <c r="O2" s="4" t="n">
-        <v>1.54</v>
+        <v>15.41</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.15</v>
+        <v>21.54</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.31</v>
+        <v>13.13</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.48</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.23</v>
+        <v>2.25</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>22.73</v>
+        <v>227.27</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.29</v>
+        <v>42.87</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.42</v>
+        <v>14.23</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.83</v>
+        <v>28.32</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.45</v>
+        <v>14.5</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.3</v>
+        <v>2.98</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.5</v>
+        <v>24.96</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.26</v>
+        <v>12.57</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.14</v>
+        <v>11.39</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.33</v>
+        <v>13.35</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.69</v>
+        <v>16.95</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.46</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.39</v>
+        <v>43.88</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.79</v>
+        <v>7.87</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.78</v>
+        <v>17.79</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>45017.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.35</v>
+        <v>13.45</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.71</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.9</v>
+        <v>28.98</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.34</v>
+        <v>23.43</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.06</v>
+        <v>10.59</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.19</v>
+        <v>41.9</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.63</v>
+        <v>16.29</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.7</v>
+        <v>6.99</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.03</v>
+        <v>10.34</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.16</v>
+        <v>11.59</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.21</v>
+        <v>12.08</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.34</v>
+        <v>3.38</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.05</v>
+        <v>10.53</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.48</v>
+        <v>14.8</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.91</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.54</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.97</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>15.29</v>
+        <v>152.92</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.95</v>
+        <v>29.5</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.97</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.95</v>
+        <v>19.52</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.01</v>
+        <v>10.14</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.93</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.02</v>
+        <v>20.16</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.86</v>
+        <v>8.58</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.78</v>
+        <v>7.81</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.91</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.2</v>
+        <v>11.97</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.27</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.82</v>
+        <v>38.16</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.54</v>
+        <v>5.37</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.21</v>
+        <v>12.15</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>45017.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.4</v>
+        <v>24.02</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.76</v>
+        <v>17.58</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.16</v>
+        <v>1.58</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>5.21</v>
+        <v>52.11</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>4.27</v>
+        <v>42.68</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.89</v>
+        <v>18.9</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>7.16</v>
+        <v>71.58</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.91</v>
+        <v>29.09</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.28</v>
+        <v>12.85</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.91</v>
+        <v>19.07</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2.09</v>
+        <v>20.92</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.2</v>
+        <v>21.99</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.6</v>
+        <v>6.04</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.88</v>
+        <v>18.8</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.67</v>
+        <v>26.7</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.59</v>
+        <v>15.89</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.12</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.04</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>27.88</v>
+        <v>278.81</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>5.25</v>
+        <v>52.54</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.74</v>
+        <v>17.35</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>3.53</v>
+        <v>35.26</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.85</v>
+        <v>18.48</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.28</v>
+        <v>2.85</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.5</v>
+        <v>35.01</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.53</v>
+        <v>15.33</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.36</v>
+        <v>13.64</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.6</v>
+        <v>16.02</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.19</v>
+        <v>21.85</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>6.49</v>
+        <v>64.91</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.98</v>
+        <v>9.76</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.17</v>
+        <v>21.69</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>45017.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.31</v>
+        <v>23.06</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.7</v>
+        <v>16.98</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.33</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>5.01</v>
+        <v>50.08</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>4.11</v>
+        <v>41.07</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.81</v>
+        <v>18.15</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>7.11</v>
+        <v>71.14</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.79</v>
+        <v>27.92</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.24</v>
+        <v>12.39</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.84</v>
+        <v>18.37</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.01</v>
+        <v>20.11</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.12</v>
+        <v>21.17</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.8</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.8</v>
+        <v>18.05</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.57</v>
+        <v>25.68</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.52</v>
+        <v>15.21</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.87</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.91</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>26.74</v>
+        <v>267.38</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>5.05</v>
+        <v>50.49</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.67</v>
+        <v>16.66</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.39</v>
+        <v>33.94</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.78</v>
+        <v>17.79</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.27</v>
+        <v>2.66</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.44</v>
+        <v>34.43</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.47</v>
+        <v>14.71</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.31</v>
+        <v>13.06</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.53</v>
+        <v>15.35</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.1</v>
+        <v>21.05</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>6.46</v>
+        <v>64.59</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.08</v>
+        <v>20.83</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_336.xlsx
+++ b/DATA_goal/Junction_Flooding_336.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>45017.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>19.7</v>
+        <v>19.697</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>13.28</v>
+        <v>13.276</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.06</v>
+        <v>4.055</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>41.79</v>
+        <v>41.787</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>33.75</v>
+        <v>33.752</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>15.5</v>
+        <v>15.501</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>49.49</v>
+        <v>49.487</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>23.85</v>
+        <v>23.851</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>9.98</v>
+        <v>9.981</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>15.14</v>
+        <v>15.136</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>16.47</v>
+        <v>16.473</v>
       </c>
       <c r="M2" s="4" t="n">
         <v>17.17</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.95</v>
+        <v>4.948</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>15.41</v>
+        <v>15.414</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>21.54</v>
+        <v>21.544</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>13.13</v>
+        <v>13.131</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.48</v>
+        <v>3.479</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.25</v>
+        <v>2.254</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>227.27</v>
+        <v>227.272</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>42.87</v>
+        <v>42.867</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>14.23</v>
+        <v>14.228</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>28.32</v>
+        <v>28.315</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>14.5</v>
+        <v>14.504</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.98</v>
+        <v>2.984</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>24.96</v>
+        <v>24.958</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>12.57</v>
+        <v>12.568</v>
       </c>
       <c r="AB2" s="4" t="n">
         <v>11.39</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>13.35</v>
+        <v>13.349</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>16.95</v>
+        <v>16.948</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.46</v>
+        <v>3.456</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>43.88</v>
+        <v>43.884</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>7.87</v>
+        <v>7.874</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>17.79</v>
+        <v>17.788</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>45017.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>13.45</v>
+        <v>13.452</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>9.4</v>
+        <v>9.396000000000001</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>1.71</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>28.98</v>
+        <v>28.977</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>23.43</v>
+        <v>23.434</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>10.59</v>
+        <v>10.586</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>41.9</v>
+        <v>41.902</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>16.29</v>
+        <v>16.288</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>6.99</v>
+        <v>6.987</v>
       </c>
       <c r="K3" s="4" t="n">
         <v>10.34</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>11.59</v>
+        <v>11.594</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>12.08</v>
+        <v>12.079</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.38</v>
+        <v>3.383</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>10.53</v>
+        <v>10.527</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>14.8</v>
+        <v>14.804</v>
       </c>
       <c r="Q3" s="4" t="n">
         <v>9.119999999999999</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.54</v>
+        <v>1.536</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.97</v>
+        <v>0.972</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>152.92</v>
+        <v>152.916</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>29.5</v>
+        <v>29.503</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>9.720000000000001</v>
+        <v>9.717000000000001</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>19.52</v>
+        <v>19.518</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>10.14</v>
+        <v>10.142</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.93</v>
+        <v>1.928</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>20.16</v>
+        <v>20.159</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>8.58</v>
+        <v>8.583</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>7.81</v>
+        <v>7.806</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>9.140000000000001</v>
+        <v>9.143000000000001</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>11.97</v>
+        <v>11.971</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.27</v>
+        <v>1.265</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>38.16</v>
+        <v>38.163</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.37</v>
+        <v>5.365</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>12.15</v>
+        <v>12.148</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>45017.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>24.02</v>
+        <v>24.021</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>17.58</v>
+        <v>17.584</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.58</v>
+        <v>1.576</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>52.11</v>
+        <v>52.115</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>42.68</v>
+        <v>42.681</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>18.9</v>
+        <v>18.904</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>71.58</v>
+        <v>71.58199999999999</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>29.09</v>
+        <v>29.086</v>
       </c>
       <c r="J4" s="4" t="n">
         <v>12.85</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>19.07</v>
+        <v>19.067</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>20.92</v>
+        <v>20.918</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>21.99</v>
+        <v>21.994</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>6.04</v>
+        <v>6.038</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>18.8</v>
+        <v>18.798</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>26.7</v>
+        <v>26.702</v>
       </c>
       <c r="Q4" s="4" t="n">
         <v>15.89</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.12</v>
+        <v>1.118</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>1.04</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>278.81</v>
+        <v>278.815</v>
       </c>
       <c r="U4" s="4" t="n">
         <v>52.54</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>17.35</v>
+        <v>17.351</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>35.26</v>
+        <v>35.256</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>18.48</v>
+        <v>18.478</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.85</v>
+        <v>2.849</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>35.01</v>
+        <v>35.006</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>15.33</v>
+        <v>15.326</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>13.64</v>
+        <v>13.642</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>16.02</v>
+        <v>16.025</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>21.85</v>
+        <v>21.855</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.773</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>64.91</v>
+        <v>64.914</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>9.76</v>
+        <v>9.757</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>21.69</v>
+        <v>21.693</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>20.83</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45017.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>18.99</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>38.54</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>8.82</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>8.460000000000001</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>17.75</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>3.47</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_336.xlsx
+++ b/DATA_goal/Junction_Flooding_336.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -970,100 +970,204 @@
         <v>23.06</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>16.98</v>
+        <v>16.982</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.33</v>
+        <v>1.328</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>50.08</v>
+        <v>50.081</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>41.07</v>
+        <v>41.071</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>18.15</v>
+        <v>18.148</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>71.14</v>
+        <v>71.145</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>27.92</v>
+        <v>27.923</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>12.39</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>18.37</v>
+        <v>18.372</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>20.11</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>21.17</v>
+        <v>21.172</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.8</v>
+        <v>5.797</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>18.05</v>
+        <v>18.046</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>25.68</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>15.21</v>
+        <v>15.209</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.87</v>
+        <v>0.872</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.91</v>
+        <v>0.909</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>267.38</v>
+        <v>267.377</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>50.49</v>
+        <v>50.492</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>16.66</v>
+        <v>16.657</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>33.94</v>
+        <v>33.939</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>17.79</v>
+        <v>17.789</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.66</v>
+        <v>2.664</v>
       </c>
       <c r="Z5" s="4" t="n">
         <v>34.43</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>14.71</v>
+        <v>14.713</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>13.06</v>
+        <v>13.059</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>15.35</v>
+        <v>15.346</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>21.05</v>
+        <v>21.048</v>
       </c>
       <c r="AE5" s="4" t="n">
+        <v>0.5570000000000001</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>64.587</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>9.385</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>20.826</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45017.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="D6" s="4" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="AF5" s="4" t="n">
-        <v>64.59</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>20.83</v>
+      <c r="E6" s="4" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>18.99</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>38.54</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>8.460000000000001</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>3.47</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_336.xlsx
+++ b/DATA_goal/Junction_Flooding_336.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -970,204 +970,100 @@
         <v>23.06</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>16.982</v>
+        <v>16.98</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.328</v>
+        <v>1.33</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>50.081</v>
+        <v>50.08</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>41.071</v>
+        <v>41.07</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>18.148</v>
+        <v>18.15</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>71.145</v>
+        <v>71.14</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>27.923</v>
+        <v>27.92</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>12.39</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>18.372</v>
+        <v>18.37</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>20.11</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>21.172</v>
+        <v>21.17</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.797</v>
+        <v>5.8</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>18.046</v>
+        <v>18.05</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>25.68</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>15.209</v>
+        <v>15.21</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.872</v>
+        <v>0.87</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.909</v>
+        <v>0.91</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>267.377</v>
+        <v>267.38</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>50.492</v>
+        <v>50.49</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>16.657</v>
+        <v>16.66</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>33.939</v>
+        <v>33.94</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>17.789</v>
+        <v>17.79</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.664</v>
+        <v>2.66</v>
       </c>
       <c r="Z5" s="4" t="n">
         <v>34.43</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>14.713</v>
+        <v>14.71</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>13.059</v>
+        <v>13.06</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>15.346</v>
+        <v>15.35</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>21.048</v>
+        <v>21.05</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>64.587</v>
+        <v>64.59</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.385</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>20.826</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45017.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>18.99</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>38.54</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>8.82</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>8.460000000000001</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>17.75</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>3.47</v>
+        <v>20.83</v>
       </c>
     </row>
   </sheetData>
